--- a/assets/files/Student_From_Data.xlsx
+++ b/assets/files/Student_From_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fieldwork_nuol/assets/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE9B0E2-F6FA-F949-8A2B-1F847085659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46F2057-D07C-7C43-AF38-0C00DA893455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{F46E6FF6-3060-2745-AE4A-2972A309CDBC}"/>
   </bookViews>
@@ -168,33 +168,39 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,12 +520,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="4" width="10.83203125" style="1"/>
     <col min="5" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" style="1" customWidth="1"/>
@@ -568,24 +574,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gu0DMrwQMqqneapbvAyrK/kjILun4zQeFkx5ValHwizCjm5m0R8HIvG/2wnkmQGFRik6xy8X5ORHcWIdc1YEig==" saltValue="9I9fPR1om43eEfdMUJXIMA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>

--- a/assets/files/Student_From_Data.xlsx
+++ b/assets/files/Student_From_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fieldwork_nuol/assets/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46F2057-D07C-7C43-AF38-0C00DA893455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CDD2AE-5479-4A40-A7ED-95C9E6D62E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{F46E6FF6-3060-2745-AE4A-2972A309CDBC}"/>
   </bookViews>
@@ -517,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B1BD51-4EEA-FD47-881E-E9E03E50A70F}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -591,8 +591,205 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Gu0DMrwQMqqneapbvAyrK/kjILun4zQeFkx5ValHwizCjm5m0R8HIvG/2wnkmQGFRik6xy8X5ORHcWIdc1YEig==" saltValue="9I9fPR1om43eEfdMUJXIMA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
